--- a/Symphony/2021/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,20 +33,47 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>Maa Babar Doa</t>
-  </si>
-  <si>
-    <t>Jigri Bazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RET-29119 </t>
+    <t xml:space="preserve"> RET-35440 </t>
+  </si>
+  <si>
+    <t>Mamun Telecom</t>
+  </si>
+  <si>
+    <t>Road View</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-38334</t>
+  </si>
+  <si>
+    <t>Bismillah Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-12905</t>
+  </si>
+  <si>
+    <t>Shovon Library</t>
+  </si>
+  <si>
+    <t>Jhalmalia Bazar</t>
+  </si>
+  <si>
+    <t>Abdullah Mobile Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-24890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-35278</t>
+  </si>
+  <si>
+    <t>Al Faruk Electronics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,17 +493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="H14:I14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
@@ -484,7 +513,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -495,38 +524,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -536,7 +589,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -549,164 +602,164 @@
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,40 +33,106 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t xml:space="preserve"> RET-35440 </t>
-  </si>
-  <si>
-    <t>Mamun Telecom</t>
-  </si>
-  <si>
-    <t>Road View</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RET-38334</t>
-  </si>
-  <si>
-    <t>Bismillah Auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RET-12905</t>
-  </si>
-  <si>
-    <t>Shovon Library</t>
-  </si>
-  <si>
-    <t>Jhalmalia Bazar</t>
-  </si>
-  <si>
-    <t>Abdullah Mobile Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RET-24890</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RET-35278</t>
-  </si>
-  <si>
-    <t>Al Faruk Electronics</t>
+    <t>RET-07931</t>
+  </si>
+  <si>
+    <t>SR Electronics</t>
+  </si>
+  <si>
+    <t>Chanckoir Bazar Gurudashpur Natore</t>
+  </si>
+  <si>
+    <t>The Dhaka Telecom</t>
+  </si>
+  <si>
+    <t>RET-15339</t>
+  </si>
+  <si>
+    <t>Najirpur Bazar* Gurudaspur* Natore</t>
+  </si>
+  <si>
+    <t>Achol Telecom</t>
+  </si>
+  <si>
+    <t>RET-37441</t>
+  </si>
+  <si>
+    <t>Jonail BaraigramNatore.</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom</t>
+  </si>
+  <si>
+    <t>RET-26511</t>
+  </si>
+  <si>
+    <t>Naopara Bazar Puthia Rajshahi</t>
+  </si>
+  <si>
+    <t>Shardah Telecom</t>
+  </si>
+  <si>
+    <t>RET-12890</t>
+  </si>
+  <si>
+    <t>Sardah Bazar CharghatRajshahi</t>
+  </si>
+  <si>
+    <t>Azim Mobile Center</t>
+  </si>
+  <si>
+    <t>RET-36165</t>
+  </si>
+  <si>
+    <t>Koenbazar Baraigram Natore.</t>
+  </si>
+  <si>
+    <t>Sky Telecom</t>
+  </si>
+  <si>
+    <t>Chadpur BazarNatore</t>
+  </si>
+  <si>
+    <t>RET-34126</t>
+  </si>
+  <si>
+    <t>Liton Electronics &amp; Sound System</t>
+  </si>
+  <si>
+    <t>RET-36548</t>
+  </si>
+  <si>
+    <t>Abdulpur Lalpur Natore.</t>
+  </si>
+  <si>
+    <t>RET-39736</t>
+  </si>
+  <si>
+    <t>RET-39742</t>
+  </si>
+  <si>
+    <t>Nilima Mobile</t>
+  </si>
+  <si>
+    <t>Singra Natore</t>
+  </si>
+  <si>
+    <t>Samiha Telecom</t>
+  </si>
+  <si>
+    <t>RET-34527</t>
+  </si>
+  <si>
+    <t>Bagha Bazar Bagha Rajshahi</t>
+  </si>
+  <si>
+    <t>Jewel Telecom</t>
+  </si>
+  <si>
+    <t>RET-36436</t>
+  </si>
+  <si>
+    <t>Bagha Bazar Rajshahi.</t>
   </si>
 </sst>
 </file>
@@ -178,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -188,6 +251,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,14 +566,14 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
@@ -525,114 +591,156 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,106 +33,91 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-07931</t>
-  </si>
-  <si>
-    <t>SR Electronics</t>
-  </si>
-  <si>
-    <t>Chanckoir Bazar Gurudashpur Natore</t>
-  </si>
-  <si>
-    <t>The Dhaka Telecom</t>
-  </si>
-  <si>
-    <t>RET-15339</t>
-  </si>
-  <si>
-    <t>Najirpur Bazar* Gurudaspur* Natore</t>
-  </si>
-  <si>
-    <t>Achol Telecom</t>
-  </si>
-  <si>
-    <t>RET-37441</t>
-  </si>
-  <si>
-    <t>Jonail BaraigramNatore.</t>
-  </si>
-  <si>
-    <t>Bismillah Telecom</t>
-  </si>
-  <si>
-    <t>RET-26511</t>
-  </si>
-  <si>
-    <t>Naopara Bazar Puthia Rajshahi</t>
-  </si>
-  <si>
-    <t>Shardah Telecom</t>
-  </si>
-  <si>
-    <t>RET-12890</t>
-  </si>
-  <si>
-    <t>Sardah Bazar CharghatRajshahi</t>
-  </si>
-  <si>
-    <t>Azim Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-36165</t>
-  </si>
-  <si>
-    <t>Koenbazar Baraigram Natore.</t>
-  </si>
-  <si>
-    <t>Sky Telecom</t>
-  </si>
-  <si>
-    <t>Chadpur BazarNatore</t>
-  </si>
-  <si>
-    <t>RET-34126</t>
-  </si>
-  <si>
-    <t>Liton Electronics &amp; Sound System</t>
-  </si>
-  <si>
-    <t>RET-36548</t>
-  </si>
-  <si>
-    <t>Abdulpur Lalpur Natore.</t>
-  </si>
-  <si>
-    <t>RET-39736</t>
-  </si>
-  <si>
-    <t>RET-39742</t>
-  </si>
-  <si>
-    <t>Nilima Mobile</t>
-  </si>
-  <si>
-    <t>Singra Natore</t>
-  </si>
-  <si>
-    <t>Samiha Telecom</t>
-  </si>
-  <si>
-    <t>RET-34527</t>
-  </si>
-  <si>
-    <t>Bagha Bazar Bagha Rajshahi</t>
-  </si>
-  <si>
-    <t>Jewel Telecom</t>
-  </si>
-  <si>
-    <t>RET-36436</t>
-  </si>
-  <si>
-    <t>Bagha Bazar Rajshahi.</t>
+    <t>RET-36437</t>
+  </si>
+  <si>
+    <t>Monia Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonail   </t>
+  </si>
+  <si>
+    <t>RET-14868</t>
+  </si>
+  <si>
+    <t>Maa Baba Telecom</t>
+  </si>
+  <si>
+    <t>Halsha Bazar</t>
+  </si>
+  <si>
+    <t>RET-35369</t>
+  </si>
+  <si>
+    <t>Sinja Telecom</t>
+  </si>
+  <si>
+    <t>Lalpur</t>
+  </si>
+  <si>
+    <t>RET-32043</t>
+  </si>
+  <si>
+    <t>Siam Telecom</t>
+  </si>
+  <si>
+    <t>Bonpara</t>
+  </si>
+  <si>
+    <t>RET-21139</t>
+  </si>
+  <si>
+    <t>Mukta Gift corner</t>
+  </si>
+  <si>
+    <t>Dhopapara Bazar</t>
+  </si>
+  <si>
+    <t>RET-08826</t>
+  </si>
+  <si>
+    <t>Moli Telecom</t>
+  </si>
+  <si>
+    <t>Upazila Market</t>
+  </si>
+  <si>
+    <t>RET-38674</t>
+  </si>
+  <si>
+    <t>Sopno Electronics</t>
+  </si>
+  <si>
+    <t>Naldanga</t>
+  </si>
+  <si>
+    <t>RET-36168</t>
+  </si>
+  <si>
+    <t>Nirob Mobile &amp; Computer</t>
+  </si>
+  <si>
+    <t>RET-23821</t>
+  </si>
+  <si>
+    <t>Mahi Telecom</t>
+  </si>
+  <si>
+    <t>Koraitola Bazar</t>
+  </si>
+  <si>
+    <t>RET-37855</t>
+  </si>
+  <si>
+    <t>Babu Mobile Center</t>
+  </si>
+  <si>
+    <t>Road view</t>
   </si>
 </sst>
 </file>
@@ -244,6 +229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -251,9 +239,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,7 +551,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,156 +576,144 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
